--- a/Lection 3/task 3.1/ReportApp/bin/Debug/net6.0/Templates/ShopReport.xlsx
+++ b/Lection 3/task 3.1/ReportApp/bin/Debug/net6.0/Templates/ShopReport.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC3C94C-8292-4DF8-B853-AF92D293BC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E5EAE7-5808-4999-B134-6FDAA9633315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="5190" windowWidth="21600" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,23 +15,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Report</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>Seller</t>
   </si>
   <si>
-    <t>PointOfPurchase</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -39,16 +39,16 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Purchase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,43 +66,14 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +86,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -125,15 +102,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -141,193 +157,46 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,154 +499,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K14"/>
+  <dimension ref="B7:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="7" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="8" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+    <row r="9" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="11"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
+  <mergeCells count="3">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
